--- a/medicine/Enfance/Jacqueline_Dauxois/Jacqueline_Dauxois.xlsx
+++ b/medicine/Enfance/Jacqueline_Dauxois/Jacqueline_Dauxois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Dauxois est une écrivaine française. Elle est l’auteur de plusieurs ouvrages, romans, essais et biographies.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Dauxois a un doctorat de troisième cycle en Littérature française, un diplôme d’Études Politiques, un diplôme d’Études Appliquées de Cinéma. Elle a passé des certificats de théologie et de bioéthique médicale.[réf. nécessaire] 
 Elle a écrit pour Le Magazine littéraire et pour d’autres journaux parisiens. Elle a enseigné dans divers établissements, notamment l’éthique à l’École centrale de Paris.
 Elle est membre du Comité de protection des personnes de l’hôpital Saint-Antoine à Paris.
-En 2017, elle publie sur son blog les « artimages » dans lesquels elle mélange ses textes et ses photos, cette œuvre étant le fruit de son travail avec le ténor Roberto Alagna[1].
+En 2017, elle publie sur son blog les « artimages » dans lesquels elle mélange ses textes et ses photos, cette œuvre étant le fruit de son travail avec le ténor Roberto Alagna.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1973 : Le Gardien de la mémoire - Éditions Julliard
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1973 : Le Gardien de la mémoire - Éditions Julliard
 1977 : Rocaïdour - Éditions Julliard
 1977 : Les Héritiers des lumières - Éditions Stock
 1980 : Les Blanches Années - Éditions Stock
@@ -561,11 +580,79 @@
 1994 : Alexandra (avec Vladimir Volkoff) - Éditions Albin Michel
 1996 : La Métisse, roman familial - Éditions Albin Michel
 2004 : La Grande Pâque russe - Éditions du Rocher, collection Grands romans
-2004  : Eve - Presses de la Renaissance, Éditions de la Loupe
-Nouvelles
-2022 : Nouvelles d'un monde cruel - Michel de Maule
-Biographies
-1988 : Charlotte Corday - Éditions Albin Michel
+2004  : Eve - Presses de la Renaissance, Éditions de la Loupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2022 : Nouvelles d'un monde cruel - Michel de Maule</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1988 : Charlotte Corday - Éditions Albin Michel
 1989 : Les Jupons de la Révolution : Talleyrand, Théroigne de Méricourt, Marat, Mme Tallien -  Éditions Jean-Claude Lattès
 1996 : L'Empereur des alchimistes : Rodolphe II de Habsbourg -  Éditions Jean-Claude Lattès
 1998 : Marie-Madeleine - Pygmalion, le Grand livre du mois
@@ -575,9 +662,43 @@
 2002 : Messaline - Pygmalion
 2002 : Anne de Kiev : reine de France - Presses de la Renaissance (Sélection 2003 Prix Hugues-Capet)
 2011 : Reines de légende. Réunit : Néfertiti, La Reine de Saba, Cléopâtre, Messaline - Pygmalion
-2014 :  La Reine de l'Orient : Zénobie - Pygmalion
-Essais
-1972 : Le Silence de la mer : de la révolte à l’humanisme - Thesis Aix-Marseille 1, thèse
+2014 :  La Reine de l'Orient : Zénobie - Pygmalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacqueline_Dauxois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1972 : Le Silence de la mer : de la révolte à l’humanisme - Thesis Aix-Marseille 1, thèse
 1982 : Vladimir Volkoff : l'exil est ma patrie. Entretiens - Éditions du Centurion
 2005 : Médecin aux urgences (entretiens avec Marc Andronikof) - Éditions du Rocher, essai sur l'éthique médicale
 2006 : Les Plus Belles Histoires d'amour de la Bible - Presses de la Renaissance
